--- a/tut05/output/0401CS31.xlsx
+++ b/tut05/output/0401CS31.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.897959183673469</v>
+        <v>6.9</v>
       </c>
       <c r="C6" t="n">
-        <v>6.886363636363637</v>
+        <v>6.89</v>
       </c>
       <c r="D6" t="n">
-        <v>8.348837209302326</v>
+        <v>8.35</v>
       </c>
       <c r="E6" t="n">
-        <v>7.25531914893617</v>
+        <v>7.26</v>
       </c>
       <c r="F6" t="n">
-        <v>8.119047619047619</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="G6" t="n">
         <v>8.15</v>
       </c>
       <c r="H6" t="n">
-        <v>8.731707317073171</v>
+        <v>8.73</v>
       </c>
       <c r="I6" t="n">
         <v>8.65</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.897959183673469</v>
+        <v>6.9</v>
       </c>
       <c r="C8" t="n">
-        <v>6.89247311827957</v>
+        <v>6.89</v>
       </c>
       <c r="D8" t="n">
-        <v>7.352941176470588</v>
+        <v>7.35</v>
       </c>
       <c r="E8" t="n">
-        <v>7.327868852459017</v>
+        <v>7.33</v>
       </c>
       <c r="F8" t="n">
-        <v>7.475555555555555</v>
+        <v>7.48</v>
       </c>
       <c r="G8" t="n">
-        <v>7.577358490566038</v>
+        <v>7.58</v>
       </c>
       <c r="H8" t="n">
-        <v>7.73202614379085</v>
+        <v>7.73</v>
       </c>
       <c r="I8" t="n">
-        <v>7.838150289017341</v>
+        <v>7.84</v>
       </c>
     </row>
   </sheetData>
